--- a/data/users/db_shofa.xlsx
+++ b/data/users/db_shofa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -168,7 +168,7 @@
         <v>1000000.0</v>
       </c>
       <c r="H2" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -194,7 +194,7 @@
         <v>985000.0</v>
       </c>
       <c r="H3" t="b" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/users/db_shofa.xlsx
+++ b/data/users/db_shofa.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
